--- a/BalanceSheet/IP_bal.xlsx
+++ b/BalanceSheet/IP_bal.xlsx
@@ -504,19 +504,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>93000000.0</v>
+        <v>1828000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-39000000.0</v>
+        <v>2050000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>9000000.0</v>
+        <v>2007000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>5000000.0</v>
+        <v>2010000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>60000000.0</v>
+        <v>2002000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>2208000000.0</v>
@@ -1780,19 +1780,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>68000000.0</v>
+        <v>3805000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>141000000.0</v>
+        <v>2320000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>37000000.0</v>
+        <v>2226000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-6000000.0</v>
+        <v>2206000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-31000000.0</v>
+        <v>2379000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>2423000000.0</v>
@@ -1906,10 +1906,8 @@
           <t>Accrued Expenses</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B15" s="0" t="n">
+        <v>363000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>466000000.0</v>
@@ -2779,19 +2777,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20000000.0</v>
+        <v>2756000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>14000000.0</v>
+        <v>2743000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-17000000.0</v>
+        <v>2639000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-23000000.0</v>
+        <v>2654000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>35000000.0</v>
+        <v>2662000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>2633000000.0</v>
@@ -3489,10 +3487,8 @@
           <t>Additional Paid In Capital</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>6267000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>6325000000.0</v>
@@ -3872,10 +3868,8 @@
           <t>Treasury Stock</t>
         </is>
       </c>
-      <c r="B29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B29" s="0" t="n">
+        <v>2719000000.0</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2648000000.0</v>
@@ -4583,10 +4577,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>391700000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>393100000.0</v>
@@ -4855,7 +4847,7 @@
         <v>15718000000.0</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>13912000000.0</v>
+        <v>13608000000.0</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>9260000000.0</v>
@@ -4982,7 +4974,7 @@
         <v>16957000000.0</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>14423000000.0</v>
+        <v>14119000000.0</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>9957000000.0</v>
